--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日期</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>3号</t>
+  </si>
+  <si>
+    <t>4号</t>
+  </si>
+  <si>
+    <t>5号</t>
+  </si>
+  <si>
+    <t>6号</t>
   </si>
 </sst>
 </file>
@@ -1008,13 +1017,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="10.7765957446809" style="1"/>
   </cols>
@@ -1055,6 +1064,30 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
